--- a/draw_graph/G500_log/G500_log2.xlsx
+++ b/draw_graph/G500_log/G500_log2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\科研_项目_竞赛\GPU三角计数算法期刊改稿\draw_graph\G500_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B5C0B0-E882-44FA-BBA9-90CAEAF879C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7428782-7360-4098-8410-4E724C00F01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,55 +22,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>datasets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC-HASH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>polak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TRUST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s17-e32</t>
+    <t>Datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s18-e32</t>
+    <t>Polak</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s19-e32</t>
+    <t>GroupTC-HS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s20-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s21-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s22-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s23-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s24-e32</t>
+    <t>s17-e32</t>
+  </si>
+  <si>
+    <t>s18-e32</t>
+  </si>
+  <si>
+    <t>s19-e32</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s21-e32</t>
+  </si>
+  <si>
+    <t>s22-e32</t>
+  </si>
+  <si>
+    <t>s23-e32</t>
+  </si>
+  <si>
+    <t>s24-e32</t>
+  </si>
+  <si>
+    <t>GroupTC-BS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +451,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,24 +463,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1.1795E-2</v>
@@ -505,7 +497,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3.5737999999999999E-2</v>
@@ -522,7 +514,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.106129</v>
@@ -539,7 +531,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.30154799999999998</v>
@@ -556,7 +548,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.82407600000000003</v>
@@ -573,7 +565,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2.2034500000000001</v>
@@ -590,7 +582,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5.7751109999999999</v>
@@ -607,7 +599,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>15.000771</v>

--- a/draw_graph/G500_log/G500_log2.xlsx
+++ b/draw_graph/G500_log/G500_log2.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7428782-7360-4098-8410-4E724C00F01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BC0A70-A030-4210-9A72-5ED385CB3C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -451,7 +462,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B1" sqref="B1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,6 +470,7 @@
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -483,16 +495,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.1795E-2</v>
+        <v>1.1724999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>6.9709999999999998E-3</v>
+        <v>6.2440000000000004E-3</v>
       </c>
       <c r="D2">
-        <v>7.8980000000000005E-3</v>
+        <v>7.9150000000000002E-3</v>
       </c>
       <c r="E2">
-        <v>5.0730000000000003E-3</v>
+        <v>5.0850000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -500,16 +512,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.5737999999999999E-2</v>
+        <v>3.5777999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>1.7982000000000001E-2</v>
+        <v>1.4947E-2</v>
       </c>
       <c r="D3">
-        <v>2.0434000000000001E-2</v>
+        <v>2.0455000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>1.3658999999999999E-2</v>
+        <v>1.3674E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -517,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.106129</v>
+        <v>0.106285</v>
       </c>
       <c r="C4">
-        <v>4.8187000000000001E-2</v>
+        <v>3.9902E-2</v>
       </c>
       <c r="D4">
-        <v>4.4547000000000003E-2</v>
+        <v>4.4511000000000002E-2</v>
       </c>
       <c r="E4">
         <v>3.7867999999999999E-2</v>
@@ -534,16 +546,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.30154799999999998</v>
+        <v>0.30071300000000001</v>
       </c>
       <c r="C5">
-        <v>0.12775400000000001</v>
+        <v>9.9743999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>0.12094299999999999</v>
+        <v>0.12087199999999999</v>
       </c>
       <c r="E5">
-        <v>0.101674</v>
+        <v>0.10163800000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -551,16 +563,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.82407600000000003</v>
+        <v>0.82346600000000003</v>
       </c>
       <c r="C6">
-        <v>0.342503</v>
+        <v>0.24488599999999999</v>
       </c>
       <c r="D6">
-        <v>0.30196800000000001</v>
+        <v>0.30181200000000002</v>
       </c>
       <c r="E6">
-        <v>0.27572999999999998</v>
+        <v>0.27565699999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -568,16 +580,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.2034500000000001</v>
+        <v>2.2011379999999998</v>
       </c>
       <c r="C7">
-        <v>0.82066300000000003</v>
+        <v>0.62895000000000001</v>
       </c>
       <c r="D7">
-        <v>0.786555</v>
+        <v>0.786582</v>
       </c>
       <c r="E7">
-        <v>0.71942399999999995</v>
+        <v>0.71928800000000004</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -585,16 +597,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>5.7751109999999999</v>
+        <v>5.7736789999999996</v>
       </c>
       <c r="C8">
-        <v>2.0816720000000002</v>
+        <v>1.6513310000000001</v>
       </c>
       <c r="D8">
-        <v>2.0868989999999998</v>
+        <v>2.087529</v>
       </c>
       <c r="E8">
-        <v>1.8673729999999999</v>
+        <v>1.8680079999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -602,16 +614,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>15.000771</v>
+        <v>14.996174999999999</v>
       </c>
       <c r="C9">
-        <v>5.3649690000000003</v>
+        <v>4.2668910000000002</v>
       </c>
       <c r="D9">
-        <v>5.2184619999999997</v>
+        <v>5.221406</v>
       </c>
       <c r="E9">
-        <v>4.8624479999999997</v>
+        <v>4.865507</v>
       </c>
     </row>
   </sheetData>
